--- a/relatorios/repasses_liberados/dentistas/11529297478/2023-08-25_relatorio_repasses_11529297478.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11529297478/2023-08-25_relatorio_repasses_11529297478.xlsx
@@ -5097,10 +5097,10 @@
         <v>0.804688</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>66.3062912</v>
+        <v>49.7297184</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -22961,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N487">
         <v>0</v>
@@ -23137,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N501">
         <v>0</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N504">
         <v>0</v>
@@ -24281,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N518">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N543">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26129,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -26261,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -27449,7 +27449,7 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N586">
         <v>0</v>
@@ -27493,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -28373,7 +28373,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N607">
         <v>0</v>
@@ -28945,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N622">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N623">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -33961,7 +33961,7 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N734">
         <v>0</v>
@@ -34005,7 +34005,7 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N735">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34313,7 +34313,7 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N742">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -35941,7 +35941,7 @@
         <v>0</v>
       </c>
       <c r="M779">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N779">
         <v>0</v>
@@ -36293,7 +36293,7 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N787">
         <v>0</v>
@@ -36865,7 +36865,7 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N800">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N821">
         <v>0</v>
@@ -37833,7 +37833,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -37921,7 +37921,7 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N824">
         <v>0</v>
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N826">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -41177,7 +41177,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -41265,7 +41265,7 @@
         <v>0</v>
       </c>
       <c r="M900">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N900">
         <v>0</v>
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42673,7 +42673,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42717,7 +42717,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -43421,7 +43421,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43465,7 +43465,7 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N950">
         <v>0</v>
@@ -45005,7 +45005,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -45093,7 +45093,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -47689,7 +47689,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -51121,7 +51121,7 @@
         <v>0</v>
       </c>
       <c r="M1124">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1124">
         <v>0</v>
@@ -51165,7 +51165,7 @@
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1125">
         <v>0</v>
@@ -51869,7 +51869,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -51913,7 +51913,7 @@
         <v>0</v>
       </c>
       <c r="M1142">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1142">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/11529297478/2023-08-25_relatorio_repasses_11529297478.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11529297478/2023-08-25_relatorio_repasses_11529297478.xlsx
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4569,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4789,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N71">
-        <v>9.893999999999998</v>
+        <v>13.192</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5141,10 +5141,10 @@
         <v>0.195313</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>3.90626</v>
+        <v>2.929695</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N177">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9761,10 +9761,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N184">
-        <v>1.068</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -10201,10 +10201,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N194">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
-        <v>9.606</v>
+        <v>12.808</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10729,10 +10729,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N206">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11081,10 +11081,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11125,10 +11125,10 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N215">
-        <v>2.592</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11301,10 +11301,10 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N219">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11345,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N220">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11433,10 +11433,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N222">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11477,10 +11477,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N223">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11741,10 +11741,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12093,10 +12093,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N237">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12313,10 +12313,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N242">
-        <v>5.184</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12357,10 +12357,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N243">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12885,10 +12885,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N255">
-        <v>6.534</v>
+        <v>8.712000000000002</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13633,10 +13633,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N272">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13677,10 +13677,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N273">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -13721,10 +13721,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N274">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13853,10 +13853,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N277">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13941,10 +13941,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N279">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -15129,10 +15129,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -15173,10 +15173,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15393,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15437,10 +15437,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15481,10 +15481,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N314">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15525,10 +15525,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15569,10 +15569,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -16097,10 +16097,10 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N328">
-        <v>18.471</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16141,10 +16141,10 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N329">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -16185,10 +16185,10 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N330">
-        <v>5.184</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -17021,10 +17021,10 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N349">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -17241,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -17329,10 +17329,10 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N356">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17373,10 +17373,10 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N357">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -17505,10 +17505,10 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N360">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -17549,10 +17549,10 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N361">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -17637,10 +17637,10 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N363">
-        <v>7.26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -18209,10 +18209,10 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -18429,10 +18429,10 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N381">
-        <v>7.26</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N384">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -18605,10 +18605,10 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N385">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -18649,10 +18649,10 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N386">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -18913,10 +18913,10 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N392">
-        <v>9.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -19177,10 +19177,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N398">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -19221,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N399">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19661,10 +19661,10 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
-        <v>5.97</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -19925,10 +19925,10 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -20013,10 +20013,10 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N417">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -20145,10 +20145,10 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N420">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -20189,10 +20189,10 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N421">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -20497,10 +20497,10 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N428">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -20981,10 +20981,10 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N439">
-        <v>1.068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -22697,7 +22697,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22741,7 +22741,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N479">
         <v>0</v>
@@ -22961,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N504">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N510">
         <v>0</v>
@@ -24149,7 +24149,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24281,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24325,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N528">
         <v>0</v>
@@ -24941,7 +24941,7 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N529">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N530">
         <v>0</v>
@@ -25029,7 +25029,7 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N531">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25381,7 +25381,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25601,7 +25601,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25689,7 +25689,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N547">
         <v>0</v>
@@ -25777,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N548">
         <v>0</v>
@@ -25821,7 +25821,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -26217,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26261,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26569,7 +26569,7 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N566">
         <v>0</v>
@@ -26613,7 +26613,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26877,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N575">
         <v>0</v>
@@ -27141,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27185,7 +27185,7 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N580">
         <v>0</v>
@@ -27361,7 +27361,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N584">
         <v>0</v>
@@ -27493,7 +27493,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N588">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N596">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N597">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N598">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0.304878</v>
       </c>
       <c r="M600">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N600">
-        <v>0</v>
+        <v>4.573169999999999</v>
       </c>
     </row>
     <row r="601" spans="1:14">
@@ -28109,10 +28109,10 @@
         <v>0.695122</v>
       </c>
       <c r="M601">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N601">
-        <v>0</v>
+        <v>23.7731724</v>
       </c>
     </row>
     <row r="602" spans="1:14">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N606">
         <v>0</v>
@@ -28417,7 +28417,7 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N608">
         <v>0</v>
@@ -28461,7 +28461,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28593,7 +28593,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28637,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N613">
         <v>0</v>
@@ -28901,7 +28901,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N622">
         <v>0</v>
@@ -29121,7 +29121,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -29561,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N634">
         <v>0</v>
@@ -29605,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29649,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -29825,7 +29825,7 @@
         <v>0</v>
       </c>
       <c r="M640">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N640">
         <v>0</v>
@@ -30221,7 +30221,7 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N649">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N652">
         <v>0</v>
@@ -30397,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N653">
         <v>0</v>
@@ -30925,7 +30925,7 @@
         <v>0</v>
       </c>
       <c r="M665">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N665">
         <v>0</v>
@@ -30969,7 +30969,7 @@
         <v>0</v>
       </c>
       <c r="M666">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N666">
         <v>0</v>
@@ -31013,7 +31013,7 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N667">
         <v>0</v>
@@ -31057,7 +31057,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N674">
         <v>0</v>
@@ -31365,7 +31365,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31409,7 +31409,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -31585,7 +31585,7 @@
         <v>0</v>
       </c>
       <c r="M680">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N680">
         <v>0</v>
@@ -31629,7 +31629,7 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N681">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -32201,7 +32201,7 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N694">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N695">
         <v>0</v>
@@ -32597,7 +32597,7 @@
         <v>0</v>
       </c>
       <c r="M703">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N703">
         <v>0</v>
@@ -32641,7 +32641,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -32817,10 +32817,10 @@
         <v>0.304878</v>
       </c>
       <c r="M708">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N708">
-        <v>4.573169999999999</v>
+        <v>6.09756</v>
       </c>
     </row>
     <row r="709" spans="1:14">
@@ -33037,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N713">
         <v>0</v>
@@ -33345,7 +33345,7 @@
         <v>0</v>
       </c>
       <c r="M720">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N720">
         <v>0</v>
@@ -33477,7 +33477,7 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N723">
         <v>0</v>
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="M724">
-        <v>0.59</v>
+        <v>0.3</v>
       </c>
       <c r="N724">
         <v>0</v>
@@ -33565,7 +33565,7 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N725">
         <v>0</v>
@@ -33609,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N726">
         <v>0</v>
@@ -33873,7 +33873,7 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N732">
         <v>0</v>
@@ -33917,7 +33917,7 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N733">
         <v>0</v>
@@ -33961,7 +33961,7 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N734">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34885,7 +34885,7 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N755">
         <v>0</v>
@@ -35237,7 +35237,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35281,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N764">
         <v>0</v>
@@ -35325,7 +35325,7 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N765">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N775">
         <v>0</v>
@@ -35809,7 +35809,7 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N776">
         <v>0</v>
@@ -35853,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -35897,7 +35897,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -35941,7 +35941,7 @@
         <v>0</v>
       </c>
       <c r="M779">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N779">
         <v>0</v>
@@ -36557,7 +36557,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36645,7 +36645,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N798">
         <v>0</v>
@@ -36865,7 +36865,7 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N800">
         <v>0</v>
@@ -37525,7 +37525,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37833,7 +37833,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -38097,7 +38097,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -38229,7 +38229,7 @@
         <v>0</v>
       </c>
       <c r="M831">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N831">
         <v>0</v>
@@ -38273,7 +38273,7 @@
         <v>0</v>
       </c>
       <c r="M832">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N832">
         <v>0</v>
@@ -38361,7 +38361,7 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N834">
         <v>0</v>
@@ -38713,7 +38713,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -38757,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38889,7 +38889,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N846">
         <v>0</v>
@@ -39549,7 +39549,7 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N861">
         <v>0</v>
@@ -39593,7 +39593,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N862">
         <v>0</v>
@@ -39637,7 +39637,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39725,7 +39725,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39769,7 +39769,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -40209,7 +40209,7 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N876">
         <v>0</v>
@@ -40253,7 +40253,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40473,7 +40473,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40517,7 +40517,7 @@
         <v>0</v>
       </c>
       <c r="M883">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N883">
         <v>0</v>
@@ -40561,7 +40561,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -40605,7 +40605,7 @@
         <v>0</v>
       </c>
       <c r="M885">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N885">
         <v>0</v>
@@ -41177,7 +41177,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -41221,7 +41221,7 @@
         <v>0</v>
       </c>
       <c r="M899">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N899">
         <v>0</v>
@@ -42057,7 +42057,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42277,7 +42277,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42497,7 +42497,7 @@
         <v>0</v>
       </c>
       <c r="M928">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N928">
         <v>0</v>
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42673,7 +42673,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42893,7 +42893,7 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N937">
         <v>0</v>
@@ -42937,7 +42937,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -42981,7 +42981,7 @@
         <v>0</v>
       </c>
       <c r="M939">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N939">
         <v>0</v>
@@ -43025,7 +43025,7 @@
         <v>0</v>
       </c>
       <c r="M940">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N940">
         <v>0</v>
@@ -43069,7 +43069,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -43113,7 +43113,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43157,7 +43157,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43201,7 +43201,7 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N944">
         <v>0</v>
@@ -43245,7 +43245,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43289,7 +43289,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -43333,7 +43333,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43465,7 +43465,7 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N950">
         <v>0</v>
@@ -43509,7 +43509,7 @@
         <v>0</v>
       </c>
       <c r="M951">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N951">
         <v>0</v>
@@ -43553,7 +43553,7 @@
         <v>0</v>
       </c>
       <c r="M952">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N952">
         <v>0</v>
@@ -43597,7 +43597,7 @@
         <v>0</v>
       </c>
       <c r="M953">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N953">
         <v>0</v>
@@ -43993,7 +43993,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -44037,7 +44037,7 @@
         <v>0</v>
       </c>
       <c r="M963">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N963">
         <v>0</v>
@@ -44081,7 +44081,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -44345,7 +44345,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -44741,7 +44741,7 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N979">
         <v>0</v>
@@ -45049,7 +45049,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -46105,7 +46105,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -46325,7 +46325,7 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1015">
         <v>0</v>
@@ -46369,7 +46369,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1016">
         <v>0</v>
@@ -46457,7 +46457,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46985,7 +46985,7 @@
         <v>0</v>
       </c>
       <c r="M1030">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1030">
         <v>0</v>
@@ -47249,7 +47249,7 @@
         <v>0</v>
       </c>
       <c r="M1036">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1036">
         <v>0</v>
@@ -47293,7 +47293,7 @@
         <v>0</v>
       </c>
       <c r="M1037">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1037">
         <v>0</v>
@@ -47425,7 +47425,7 @@
         <v>0</v>
       </c>
       <c r="M1040">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1040">
         <v>0</v>
@@ -47513,7 +47513,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -47557,7 +47557,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -47601,7 +47601,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -47645,7 +47645,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -47733,7 +47733,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -48085,7 +48085,7 @@
         <v>0</v>
       </c>
       <c r="M1055">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1055">
         <v>0</v>
@@ -48129,7 +48129,7 @@
         <v>0</v>
       </c>
       <c r="M1056">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1056">
         <v>0</v>
@@ -48173,7 +48173,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48701,7 +48701,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -48745,7 +48745,7 @@
         <v>0</v>
       </c>
       <c r="M1070">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1070">
         <v>0</v>
@@ -48965,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -49625,7 +49625,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -49801,7 +49801,7 @@
         <v>0</v>
       </c>
       <c r="M1094">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1094">
         <v>0</v>
@@ -49845,7 +49845,7 @@
         <v>0</v>
       </c>
       <c r="M1095">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1095">
         <v>0</v>
@@ -50241,7 +50241,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -50329,7 +50329,7 @@
         <v>0</v>
       </c>
       <c r="M1106">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1106">
         <v>0</v>
@@ -50637,7 +50637,7 @@
         <v>0</v>
       </c>
       <c r="M1113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1113">
         <v>0</v>
@@ -50989,7 +50989,7 @@
         <v>0</v>
       </c>
       <c r="M1121">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1121">
         <v>0</v>
@@ -51033,7 +51033,7 @@
         <v>0</v>
       </c>
       <c r="M1122">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1122">
         <v>0</v>
@@ -51077,7 +51077,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51165,7 +51165,7 @@
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N1125">
         <v>0</v>
@@ -51341,7 +51341,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -51385,7 +51385,7 @@
         <v>0</v>
       </c>
       <c r="M1130">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1130">
         <v>0</v>
@@ -51429,7 +51429,7 @@
         <v>0</v>
       </c>
       <c r="M1131">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1131">
         <v>0</v>
@@ -51693,7 +51693,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -51913,7 +51913,7 @@
         <v>0</v>
       </c>
       <c r="M1142">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1142">
         <v>0</v>
